--- a/Møller Innkjøp stasjoner.xlsx
+++ b/Møller Innkjøp stasjoner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://autoringen-my.sharepoint.com/personal/mike_autoringen_no/Documents/Møller Innkjøp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{975E9119-7A7A-4F4D-A78E-1C06672CB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A4ECFD77-F2CC-B249-8D69-A07ECE7BCD48}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{975E9119-7A7A-4F4D-A78E-1C06672CB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04A7DD87-0AA3-DA45-A112-3E7E5821EB55}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="1980" windowWidth="26840" windowHeight="14920" xr2:uid="{A0B64CBE-1ABE-1B4B-8DA7-CC7689988396}"/>
+    <workbookView xWindow="1600" yWindow="1980" windowWidth="26840" windowHeight="14920" activeTab="1" xr2:uid="{A0B64CBE-1ABE-1B4B-8DA7-CC7689988396}"/>
   </bookViews>
   <sheets>
     <sheet name="Viking" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Stasjon</t>
   </si>
@@ -91,6 +91,33 @@
   </si>
   <si>
     <t>Oslo</t>
+  </si>
+  <si>
+    <t>0668</t>
+  </si>
+  <si>
+    <t>Pinavegen 2</t>
+  </si>
+  <si>
+    <t>7800</t>
+  </si>
+  <si>
+    <t>Åsbieveien 14</t>
+  </si>
+  <si>
+    <t>4848</t>
+  </si>
+  <si>
+    <t>Sjøfarstgata 8a</t>
+  </si>
+  <si>
+    <t>7714</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>https://maps.app.goo.gl/zKH7TFAFp13YRwvM9</t>
   </si>
 </sst>
 </file>
@@ -106,8 +133,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -132,8 +160,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -471,34 +500,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB4D428-D268-9342-B72E-C47805E58086}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
@@ -507,8 +536,8 @@
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2">
-        <v>668</v>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -518,35 +547,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AF3C9B-2005-B540-A08E-11B258D0E0E0}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -556,11 +588,11 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>7075</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -570,11 +602,11 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>4313</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -584,26 +616,56 @@
       <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>5258</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -613,7 +675,7 @@
       <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>4636</v>
       </c>
     </row>

--- a/Møller Innkjøp stasjoner.xlsx
+++ b/Møller Innkjøp stasjoner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://autoringen-my.sharepoint.com/personal/mike_autoringen_no/Documents/Møller Innkjøp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{975E9119-7A7A-4F4D-A78E-1C06672CB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04A7DD87-0AA3-DA45-A112-3E7E5821EB55}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="8_{975E9119-7A7A-4F4D-A78E-1C06672CB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93FE948B-78C3-1743-A10F-78199EC7870F}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="1980" windowWidth="26840" windowHeight="14920" activeTab="1" xr2:uid="{A0B64CBE-1ABE-1B4B-8DA7-CC7689988396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>Stasjon</t>
   </si>
@@ -114,10 +114,28 @@
     <t>7714</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>https://maps.app.goo.gl/zKH7TFAFp13YRwvM9</t>
+    <t>59.92815</t>
+  </si>
+  <si>
+    <t>10.84207</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>63.35462</t>
+  </si>
+  <si>
+    <t>10.37234</t>
+  </si>
+  <si>
+    <t>58.87855</t>
+  </si>
+  <si>
+    <t>5.71927</t>
   </si>
 </sst>
 </file>
@@ -498,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB4D428-D268-9342-B72E-C47805E58086}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="F1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,7 +530,7 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -525,8 +543,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -538,6 +562,12 @@
       </c>
       <c r="D2" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -547,10 +577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AF3C9B-2005-B540-A08E-11B258D0E0E0}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,7 +591,7 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,10 +605,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -591,8 +624,14 @@
       <c r="D2" s="1">
         <v>7075</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -605,8 +644,14 @@
       <c r="D3" s="1">
         <v>4313</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -620,7 +665,7 @@
         <v>5258</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -634,7 +679,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -648,7 +693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -661,11 +706,8 @@
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>

--- a/Møller Innkjøp stasjoner.xlsx
+++ b/Møller Innkjøp stasjoner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://autoringen-my.sharepoint.com/personal/mike_autoringen_no/Documents/Møller Innkjøp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{975E9119-7A7A-4F4D-A78E-1C06672CB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93FE948B-78C3-1743-A10F-78199EC7870F}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{975E9119-7A7A-4F4D-A78E-1C06672CB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0122245A-CB66-5549-AD99-24DF2D042E67}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="1980" windowWidth="26840" windowHeight="14920" activeTab="1" xr2:uid="{A0B64CBE-1ABE-1B4B-8DA7-CC7689988396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Stasjon</t>
   </si>
@@ -136,6 +136,36 @@
   </si>
   <si>
     <t>5.71927</t>
+  </si>
+  <si>
+    <t>60.29552</t>
+  </si>
+  <si>
+    <t>5.25276</t>
+  </si>
+  <si>
+    <t>64.46625</t>
+  </si>
+  <si>
+    <t>11.50387</t>
+  </si>
+  <si>
+    <t>58.45858</t>
+  </si>
+  <si>
+    <t>8.71815</t>
+  </si>
+  <si>
+    <t>64.00874</t>
+  </si>
+  <si>
+    <t>11.49363</t>
+  </si>
+  <si>
+    <t>8.12099</t>
+  </si>
+  <si>
+    <t>58.17896</t>
   </si>
 </sst>
 </file>
@@ -516,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB4D428-D268-9342-B72E-C47805E58086}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F1" sqref="E1:F1"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -530,7 +560,7 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -549,8 +579,11 @@
       <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -577,10 +610,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AF3C9B-2005-B540-A08E-11B258D0E0E0}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -591,7 +624,7 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -610,8 +643,11 @@
       <c r="F1" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -631,7 +667,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -651,7 +687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -664,8 +700,14 @@
       <c r="D4" s="1">
         <v>5258</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -678,8 +720,14 @@
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -692,8 +740,14 @@
       <c r="D6" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -706,8 +760,14 @@
       <c r="D7" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -719,6 +779,12 @@
       </c>
       <c r="D8" s="1">
         <v>4636</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Møller Innkjøp stasjoner.xlsx
+++ b/Møller Innkjøp stasjoner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://autoringen-my.sharepoint.com/personal/mike_autoringen_no/Documents/Møller Innkjøp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{975E9119-7A7A-4F4D-A78E-1C06672CB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0122245A-CB66-5549-AD99-24DF2D042E67}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{975E9119-7A7A-4F4D-A78E-1C06672CB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59533FD4-5401-C043-A765-161173DB5E96}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1980" windowWidth="26840" windowHeight="14920" activeTab="1" xr2:uid="{A0B64CBE-1ABE-1B4B-8DA7-CC7689988396}"/>
+    <workbookView xWindow="1600" yWindow="1980" windowWidth="26840" windowHeight="14920" xr2:uid="{A0B64CBE-1ABE-1B4B-8DA7-CC7689988396}"/>
   </bookViews>
   <sheets>
     <sheet name="Viking" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>Stasjon</t>
   </si>
@@ -546,11 +546,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB4D428-D268-9342-B72E-C47805E58086}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -560,7 +558,7 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -574,16 +572,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -610,11 +605,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AF3C9B-2005-B540-A08E-11B258D0E0E0}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -624,7 +617,7 @@
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -638,16 +631,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -667,7 +657,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -687,7 +677,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -707,7 +697,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -727,7 +717,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -747,7 +737,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -767,7 +757,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>

--- a/Møller Innkjøp stasjoner.xlsx
+++ b/Møller Innkjøp stasjoner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://autoringen-my.sharepoint.com/personal/mike_autoringen_no/Documents/Møller Innkjøp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{975E9119-7A7A-4F4D-A78E-1C06672CB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59533FD4-5401-C043-A765-161173DB5E96}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{975E9119-7A7A-4F4D-A78E-1C06672CB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B814AF6-4DE7-FE48-A1A6-8BA038BAF148}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="1980" windowWidth="26840" windowHeight="14920" xr2:uid="{A0B64CBE-1ABE-1B4B-8DA7-CC7689988396}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
   <si>
     <t>Stasjon</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Skibåsen 33C</t>
   </si>
   <si>
-    <t>Vollaveien</t>
-  </si>
-  <si>
     <t>Vollaveien 15</t>
   </si>
   <si>
@@ -166,13 +163,103 @@
   </si>
   <si>
     <t>58.17896</t>
+  </si>
+  <si>
+    <t>Fredrikstad</t>
+  </si>
+  <si>
+    <t>Gjøvik</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>Stabburveien 6</t>
+  </si>
+  <si>
+    <t>Viking Kontroll Fredrikstad</t>
+  </si>
+  <si>
+    <t>Viking Kontroll Alna</t>
+  </si>
+  <si>
+    <t>Viking Kontroll Gjøvik</t>
+  </si>
+  <si>
+    <t>Viking Kontroll Hamar</t>
+  </si>
+  <si>
+    <t>Viking Kontroll Kristiansand</t>
+  </si>
+  <si>
+    <t>Viking Kontroll Trondheim</t>
+  </si>
+  <si>
+    <t>Viking Kontroll Alta</t>
+  </si>
+  <si>
+    <t>59.2385261</t>
+  </si>
+  <si>
+    <t>10.9647012</t>
+  </si>
+  <si>
+    <t>Bryggevegen 9</t>
+  </si>
+  <si>
+    <t>60.795694</t>
+  </si>
+  <si>
+    <t>10.6992484</t>
+  </si>
+  <si>
+    <t>Halsetsvea 38</t>
+  </si>
+  <si>
+    <t>Ingeberg</t>
+  </si>
+  <si>
+    <t>60.8398567</t>
+  </si>
+  <si>
+    <t>11.0937347</t>
+  </si>
+  <si>
+    <t>Skibåsen 33 A</t>
+  </si>
+  <si>
+    <t>Kristiansand S</t>
+  </si>
+  <si>
+    <t>58.1782423</t>
+  </si>
+  <si>
+    <t>8.1207413</t>
+  </si>
+  <si>
+    <t>Magnus Lagabøters veg 8</t>
+  </si>
+  <si>
+    <t>63.4242057800293</t>
+  </si>
+  <si>
+    <t>10.4752950668335</t>
+  </si>
+  <si>
+    <t>Knottveien 1</t>
+  </si>
+  <si>
+    <t>69.9665723</t>
+  </si>
+  <si>
+    <t>23.3634596</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -186,6 +273,11 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,10 +300,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,16 +639,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB4D428-D268-9342-B72E-C47805E58086}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -572,31 +668,154 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3">
+        <v>1617</v>
+      </c>
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4">
+        <v>2821</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5">
+        <v>2323</v>
+      </c>
+      <c r="E5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6">
+        <v>4636</v>
+      </c>
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>7047</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>9514</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -631,10 +850,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -651,10 +870,10 @@
         <v>7075</v>
       </c>
       <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" t="s">
         <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -671,10 +890,10 @@
         <v>4313</v>
       </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
         <v>31</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -691,10 +910,10 @@
         <v>5258</v>
       </c>
       <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
         <v>33</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -702,19 +921,19 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -722,19 +941,19 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -742,19 +961,19 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
         <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -771,10 +990,10 @@
         <v>4636</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Møller Innkjøp stasjoner.xlsx
+++ b/Møller Innkjøp stasjoner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://autoringen-my.sharepoint.com/personal/mike_autoringen_no/Documents/Møller Innkjøp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="8_{975E9119-7A7A-4F4D-A78E-1C06672CB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B814AF6-4DE7-FE48-A1A6-8BA038BAF148}"/>
+  <xr:revisionPtr revIDLastSave="155" documentId="8_{975E9119-7A7A-4F4D-A78E-1C06672CB6BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC6E61AC-B07F-394D-B305-BD2A8B4D9210}"/>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1980" windowWidth="26840" windowHeight="14920" xr2:uid="{A0B64CBE-1ABE-1B4B-8DA7-CC7689988396}"/>
+    <workbookView xWindow="1600" yWindow="1980" windowWidth="26840" windowHeight="14920" activeTab="1" xr2:uid="{A0B64CBE-1ABE-1B4B-8DA7-CC7689988396}"/>
   </bookViews>
   <sheets>
     <sheet name="Viking" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
   <si>
     <t>Stasjon</t>
   </si>
@@ -253,6 +253,57 @@
   </si>
   <si>
     <t>23.3634596</t>
+  </si>
+  <si>
+    <t>NAF Senter Oslo</t>
+  </si>
+  <si>
+    <t>Eikenga 9</t>
+  </si>
+  <si>
+    <t>0579</t>
+  </si>
+  <si>
+    <t>59.9241139</t>
+  </si>
+  <si>
+    <t>10.8047797</t>
+  </si>
+  <si>
+    <t>NAF Senter Rykkinn</t>
+  </si>
+  <si>
+    <t>Folkvangveien 22</t>
+  </si>
+  <si>
+    <t>Rykkinn</t>
+  </si>
+  <si>
+    <t>59.9244041442871</t>
+  </si>
+  <si>
+    <t>10.4956493377686</t>
+  </si>
+  <si>
+    <t>NAF Senter Kistiansand</t>
+  </si>
+  <si>
+    <t>NAF Senter Steinkjær</t>
+  </si>
+  <si>
+    <t>NAF Senter Arendal</t>
+  </si>
+  <si>
+    <t>NAF Senter Namsos</t>
+  </si>
+  <si>
+    <t>NAF Senter Bergen</t>
+  </si>
+  <si>
+    <t>NAF Senter Trondheim</t>
+  </si>
+  <si>
+    <t>NAF Senter Sandnes</t>
   </si>
 </sst>
 </file>
@@ -641,7 +692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB4D428-D268-9342-B72E-C47805E58086}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -824,13 +875,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6AF3C9B-2005-B540-A08E-11B258D0E0E0}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -858,7 +911,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -878,7 +931,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -898,7 +951,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -918,7 +971,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -938,7 +991,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
@@ -958,7 +1011,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
         <v>22</v>
@@ -978,7 +1031,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
@@ -994,6 +1047,46 @@
       </c>
       <c r="F8" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1348</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
